--- a/Documents/Structured_dataset Proposal.xlsx
+++ b/Documents/Structured_dataset Proposal.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>Dimentional Table</t>
   </si>
@@ -39,9 +39,6 @@
     <t>location_id</t>
   </si>
   <si>
-    <t>date_id</t>
-  </si>
-  <si>
     <t>dim_borough</t>
   </si>
   <si>
@@ -70,15 +67,6 @@
   </si>
   <si>
     <t>dim_location</t>
-  </si>
-  <si>
-    <t>dim_date</t>
-  </si>
-  <si>
-    <t>date_year</t>
-  </si>
-  <si>
-    <t>date_month</t>
   </si>
   <si>
     <t>vehicle_crash_fact_data</t>
@@ -152,7 +140,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -185,19 +173,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -231,26 +206,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -528,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -540,194 +512,174 @@
     <col min="2" max="2" width="18.44140625" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="20.109375" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1"/>
-    <col min="7" max="7" width="24.21875" customWidth="1"/>
+    <col min="6" max="6" width="24.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
-      <c r="E1" s="6"/>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="F4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="F5" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="G6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:6">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="G7" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="F7" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="G8" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="F8" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="G9" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="F9" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="G10" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="F10" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="G11" s="3" t="s">
+      <c r="F11" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="F12" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="F13" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="F14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="F15" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="G12" s="3" t="s">
+    <row r="16" spans="1:6">
+      <c r="F16" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="G13" s="3" t="s">
+    <row r="17" spans="6:6">
+      <c r="F17" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="G14" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="G15" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="G16" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="7:7">
-      <c r="G17" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="7:7">
-      <c r="G18" s="3"/>
+    <row r="18" spans="6:6">
+      <c r="F18" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
